--- a/biology/Biochimie/Douglas_Prasher/Douglas_Prasher.xlsx
+++ b/biology/Biochimie/Douglas_Prasher/Douglas_Prasher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Douglas C. Prasher (né en août 1951) est un biologiste moléculaire américain. Il est surtout connu pour ses travaux sur le clonage et le séquençage des gènes de la photoprotéine (en) aequorin (en)[1] et de la protéine fluorescente verte (GFP)[2], ainsi que pour son idée d'utiliser la GFP comme traceur[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Douglas C. Prasher (né en août 1951) est un biologiste moléculaire américain. Il est surtout connu pour ses travaux sur le clonage et le séquençage des gènes de la photoprotéine (en) aequorin (en) et de la protéine fluorescente verte (GFP), ainsi que pour son idée d'utiliser la GFP comme traceur.
 Il a présenté ses résultats à Martin Chalfie et Roger Tsien, ce qui les a mené à gagner le prix Nobel de chimie en 2008.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prasher obtient un Ph.D. en biochimie de l'université d'État de l'Ohio en 1979. De 1979 à 1983, il fait de la recherche en génétique et en biochimie à l'université de Géorgie, où il identifie la séquence génétique de l'aequorin (en)[1],[4].
-Il travaille par la suite au département de biologie de l'Institut océanographique de Woods Hole, où il étudie la bioluminescence. En 1988, il obtient une bourse de 200 000 dollars américains de l'American Cancer Society pour cloner le gène de la protéine fluorescente verte (GFP), la protéine qui permet à la méduse de luire. Après avoir réalisé la chose, Prasher partage ses découvertes avec Martin Chalfie et Roger Y. Tsien après que ces derniers aient chacun communiqué avec lui[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prasher obtient un Ph.D. en biochimie de l'université d'État de l'Ohio en 1979. De 1979 à 1983, il fait de la recherche en génétique et en biochimie à l'université de Géorgie, où il identifie la séquence génétique de l'aequorin (en),.
+Il travaille par la suite au département de biologie de l'Institut océanographique de Woods Hole, où il étudie la bioluminescence. En 1988, il obtient une bourse de 200 000 dollars américains de l'American Cancer Society pour cloner le gène de la protéine fluorescente verte (GFP), la protéine qui permet à la méduse de luire. Après avoir réalisé la chose, Prasher partage ses découvertes avec Martin Chalfie et Roger Y. Tsien après que ces derniers aient chacun communiqué avec lui,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) D. Prasher, R. O. McCann et M. J. Cormier, « Cloning and expression of the cDNA coding for aequorin, a bioluminescent calcium-binding protein », Biochem. Biophys. Res. Comm., vol. 126,‎ 1985, p. 1259-1268
 (en) J. P. Richard, D. C. Prasher, D. H. Ives et P. A. Frey, « Chiral [18O]phosphorothioates. The stereochemical course of thiophosphoryl group transfer catalyzed by nucleoside phosphotransferase », J. Biol. Chem., vol. 254, no 1,‎ 1979, p. 4339-4341
